--- a/CCR_rules.xlsx
+++ b/CCR_rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cody_\Documents\GitHub\coc-fl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D717AC-9E79-4DD6-BBB1-C29440C816C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09E35AA-00C2-41E4-A443-502E800507AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{662EDD7E-32B7-4E5C-A0B4-0E6BC21C04FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{662EDD7E-32B7-4E5C-A0B4-0E6BC21C04FB}"/>
   </bookViews>
   <sheets>
     <sheet name="tcjaA" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="105">
   <si>
     <t>Asset code</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>SC01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOMO </t>
   </si>
   <si>
     <t>SC02</t>
@@ -711,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A3ACD3-44FF-4619-A415-B7F852CE36B8}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,25 +722,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -751,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -778,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -805,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -832,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -859,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -886,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -913,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -940,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -967,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -994,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1021,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1048,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1075,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1102,7 +1099,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1129,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1156,7 +1153,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -1183,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -1210,7 +1207,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -1237,7 +1234,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1264,7 +1261,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -1291,7 +1288,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -1318,7 +1315,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1345,7 +1342,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -1372,7 +1369,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1399,7 +1396,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -1426,7 +1423,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -1453,7 +1450,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -1480,7 +1477,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -1507,7 +1504,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -1534,7 +1531,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -1561,7 +1558,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1588,7 +1585,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -1615,7 +1612,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1642,7 +1639,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1669,7 +1666,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1696,7 +1693,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -1723,7 +1720,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1936,10 +1933,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1963,7 +1960,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -1990,7 +1987,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -2017,10 +2014,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -2044,10 +2041,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -2071,10 +2068,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -2098,10 +2095,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -2125,10 +2122,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -2152,10 +2149,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -2179,10 +2176,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -2206,7 +2203,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -2233,7 +2230,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -2260,10 +2257,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -2287,10 +2284,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -2314,7 +2311,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -2341,10 +2338,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61">
         <v>20</v>
@@ -2368,10 +2365,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -2395,10 +2392,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -2422,10 +2419,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -2449,7 +2446,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -2476,7 +2473,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -2503,7 +2500,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -2530,7 +2527,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -2557,10 +2554,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69">
         <v>15</v>
@@ -2584,7 +2581,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -2611,7 +2608,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -2638,10 +2635,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72">
         <v>15</v>
@@ -2662,10 +2659,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -2686,10 +2683,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -2710,10 +2707,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -2734,10 +2731,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -2758,10 +2755,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -2782,10 +2779,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -2806,10 +2803,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -2830,10 +2827,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -2854,10 +2851,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -2878,10 +2875,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -2902,10 +2899,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -2926,10 +2923,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -2950,10 +2947,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -2974,10 +2971,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -2998,10 +2995,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -3022,10 +3019,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88">
         <v>15</v>
@@ -3046,10 +3043,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89">
         <v>15</v>
@@ -3070,10 +3067,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90">
         <v>15</v>
@@ -3094,10 +3091,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91">
         <v>15</v>
@@ -3118,10 +3115,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92">
         <v>15</v>
@@ -3142,7 +3139,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -3176,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B87E48-8A12-467F-AFDF-136DA977F4F6}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H84" sqref="A1:H93"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3187,25 +3184,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3213,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -3240,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -3267,7 +3264,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3294,7 +3291,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3321,7 +3318,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3348,7 +3345,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3375,7 +3372,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -3402,7 +3399,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -3429,7 +3426,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -3456,7 +3453,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -3483,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -3510,7 +3507,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -3537,7 +3534,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -3564,7 +3561,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -3591,7 +3588,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -3618,7 +3615,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -3645,7 +3642,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -3672,7 +3669,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -3699,7 +3696,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -3726,7 +3723,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -3753,7 +3750,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -3780,7 +3777,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -3807,7 +3804,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -3834,7 +3831,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -3861,7 +3858,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -3888,7 +3885,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -3915,7 +3912,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -3942,7 +3939,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -3969,7 +3966,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -3996,7 +3993,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -4023,7 +4020,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4050,7 +4047,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -4077,7 +4074,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -4104,7 +4101,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -4131,7 +4128,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -4158,7 +4155,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -4185,7 +4182,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -4398,10 +4395,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -4425,7 +4422,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -4452,7 +4449,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -4479,10 +4476,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -4506,10 +4503,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -4533,10 +4530,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -4560,10 +4557,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -4587,10 +4584,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -4614,10 +4611,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -4641,10 +4638,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -4668,7 +4665,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -4695,7 +4692,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -4722,10 +4719,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -4749,10 +4746,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -4776,7 +4773,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -4803,10 +4800,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61">
         <v>20</v>
@@ -4830,10 +4827,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -4857,10 +4854,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -4884,10 +4881,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -4911,7 +4908,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -4938,7 +4935,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -4965,7 +4962,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -4992,7 +4989,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -5019,10 +5016,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69">
         <v>15</v>
@@ -5046,7 +5043,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -5073,7 +5070,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -5100,10 +5097,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72">
         <v>15</v>
@@ -5124,10 +5121,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -5148,10 +5145,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -5172,10 +5169,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -5196,10 +5193,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -5220,10 +5217,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -5244,10 +5241,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -5268,10 +5265,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -5292,10 +5289,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -5316,10 +5313,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -5340,10 +5337,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -5364,10 +5361,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -5388,10 +5385,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -5412,10 +5409,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -5436,10 +5433,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -5460,10 +5457,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -5484,10 +5481,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88">
         <v>15</v>
@@ -5508,10 +5505,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89">
         <v>15</v>
@@ -5532,10 +5529,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90">
         <v>15</v>
@@ -5556,10 +5553,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91">
         <v>15</v>
@@ -5580,10 +5577,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92">
         <v>15</v>
@@ -5604,7 +5601,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -5638,8 +5635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91182351-B9EB-4685-B65E-FBC012B78AE0}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:H93"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5649,25 +5646,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5675,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -5702,7 +5699,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -5729,7 +5726,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -5756,7 +5753,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -5783,7 +5780,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -5810,7 +5807,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -5837,7 +5834,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -5864,7 +5861,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -5891,7 +5888,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -5918,7 +5915,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -5945,7 +5942,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -5972,7 +5969,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -5999,7 +5996,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -6026,7 +6023,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -6053,7 +6050,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -6080,7 +6077,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -6107,7 +6104,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -6134,7 +6131,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -6161,7 +6158,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -6188,7 +6185,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -6215,7 +6212,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -6242,7 +6239,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -6269,7 +6266,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -6296,7 +6293,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -6323,7 +6320,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -6350,7 +6347,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -6377,7 +6374,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -6404,7 +6401,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -6431,7 +6428,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -6458,7 +6455,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -6485,7 +6482,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -6512,7 +6509,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -6539,7 +6536,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -6566,7 +6563,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -6593,7 +6590,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -6620,7 +6617,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -6647,7 +6644,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -6860,10 +6857,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -6887,7 +6884,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -6914,7 +6911,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -6941,10 +6938,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -6968,10 +6965,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -6995,10 +6992,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -7022,10 +7019,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -7049,10 +7046,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -7076,10 +7073,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -7103,10 +7100,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -7130,7 +7127,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -7157,7 +7154,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -7184,10 +7181,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -7211,10 +7208,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -7238,7 +7235,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -7265,10 +7262,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61">
         <v>20</v>
@@ -7292,10 +7289,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -7319,10 +7316,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -7346,10 +7343,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -7373,7 +7370,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -7400,7 +7397,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -7427,7 +7424,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -7454,7 +7451,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -7481,10 +7478,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69">
         <v>15</v>
@@ -7508,7 +7505,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -7535,7 +7532,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -7562,10 +7559,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72">
         <v>15</v>
@@ -7586,10 +7583,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -7610,10 +7607,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -7634,10 +7631,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -7658,10 +7655,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -7682,10 +7679,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -7706,10 +7703,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -7730,10 +7727,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -7754,10 +7751,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -7778,10 +7775,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -7802,10 +7799,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -7826,10 +7823,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -7850,10 +7847,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -7874,10 +7871,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -7898,10 +7895,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -7922,10 +7919,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -7946,10 +7943,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88">
         <v>15</v>
@@ -7970,10 +7967,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89">
         <v>15</v>
@@ -7994,10 +7991,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90">
         <v>15</v>
@@ -8018,10 +8015,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91">
         <v>15</v>
@@ -8042,10 +8039,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92">
         <v>15</v>
@@ -8066,7 +8063,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -8100,8 +8097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE42695-4E4A-4C03-B4C4-FBA8E45684E5}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:H93"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8111,25 +8108,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -8137,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -8164,7 +8161,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -8191,7 +8188,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -8218,7 +8215,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -8245,7 +8242,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -8272,7 +8269,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -8299,7 +8296,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -8326,7 +8323,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -8353,7 +8350,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -8380,7 +8377,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -8407,7 +8404,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -8434,7 +8431,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -8461,7 +8458,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -8488,7 +8485,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -8515,7 +8512,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -8542,7 +8539,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -8569,7 +8566,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -8596,7 +8593,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -8623,7 +8620,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -8650,7 +8647,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -8677,7 +8674,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -8704,7 +8701,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -8731,7 +8728,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -8758,7 +8755,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -8785,7 +8782,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -8812,7 +8809,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -8839,7 +8836,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -8866,7 +8863,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -8893,7 +8890,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -8920,7 +8917,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -8947,7 +8944,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -8974,7 +8971,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -9001,7 +8998,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -9028,7 +9025,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -9055,7 +9052,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -9082,7 +9079,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -9109,7 +9106,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -9322,10 +9319,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -9349,7 +9346,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -9376,7 +9373,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -9403,10 +9400,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -9430,10 +9427,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -9457,10 +9454,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -9484,10 +9481,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -9511,10 +9508,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -9538,10 +9535,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -9565,10 +9562,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -9592,7 +9589,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -9619,7 +9616,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -9646,10 +9643,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -9673,10 +9670,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -9700,7 +9697,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -9727,10 +9724,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61">
         <v>20</v>
@@ -9754,10 +9751,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -9781,10 +9778,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -9808,10 +9805,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -9835,7 +9832,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -9862,7 +9859,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -9889,7 +9886,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -9916,7 +9913,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -9943,10 +9940,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69">
         <v>15</v>
@@ -9970,7 +9967,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -9997,7 +9994,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -10024,10 +10021,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72">
         <v>15</v>
@@ -10048,10 +10045,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -10072,10 +10069,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -10096,10 +10093,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -10120,10 +10117,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -10144,10 +10141,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -10168,10 +10165,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -10192,10 +10189,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -10216,10 +10213,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -10240,10 +10237,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -10264,10 +10261,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -10288,10 +10285,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -10312,10 +10309,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -10336,10 +10333,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -10360,10 +10357,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -10384,10 +10381,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -10408,10 +10405,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88">
         <v>15</v>
@@ -10432,10 +10429,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89">
         <v>15</v>
@@ -10456,10 +10453,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90">
         <v>15</v>
@@ -10480,10 +10477,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91">
         <v>15</v>
@@ -10504,10 +10501,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92">
         <v>15</v>
@@ -10528,7 +10525,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -10562,8 +10559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94CA55E-DAC4-443B-98A7-E60D79B1326B}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:H93"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10573,25 +10570,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -10599,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -10626,7 +10623,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -10653,7 +10650,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -10680,7 +10677,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -10707,7 +10704,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -10734,7 +10731,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -10761,7 +10758,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -10788,7 +10785,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -10815,7 +10812,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -10842,7 +10839,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -10869,7 +10866,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -10896,7 +10893,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -10923,7 +10920,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -10950,7 +10947,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -10977,7 +10974,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -11004,7 +11001,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -11031,7 +11028,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -11058,7 +11055,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -11085,7 +11082,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -11112,7 +11109,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -11139,7 +11136,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -11166,7 +11163,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -11193,7 +11190,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -11220,7 +11217,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -11247,7 +11244,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -11274,7 +11271,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -11301,7 +11298,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -11328,7 +11325,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -11355,7 +11352,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -11382,7 +11379,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -11409,7 +11406,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -11436,7 +11433,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -11463,7 +11460,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -11490,7 +11487,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -11517,7 +11514,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -11544,7 +11541,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -11571,7 +11568,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -11784,10 +11781,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -11811,7 +11808,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -11838,7 +11835,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -11865,10 +11862,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -11892,10 +11889,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -11919,10 +11916,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -11946,10 +11943,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -11973,10 +11970,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -12000,10 +11997,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -12027,10 +12024,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -12054,7 +12051,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -12081,7 +12078,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -12108,10 +12105,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -12135,10 +12132,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -12162,7 +12159,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -12189,10 +12186,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61">
         <v>20</v>
@@ -12216,10 +12213,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -12243,10 +12240,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -12270,10 +12267,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -12297,7 +12294,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -12324,7 +12321,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -12351,7 +12348,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -12378,7 +12375,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -12405,10 +12402,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69">
         <v>15</v>
@@ -12432,7 +12429,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -12459,7 +12456,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -12486,10 +12483,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72">
         <v>15</v>
@@ -12510,10 +12507,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -12534,10 +12531,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -12558,10 +12555,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -12582,10 +12579,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -12606,10 +12603,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -12630,10 +12627,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -12654,10 +12651,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -12678,10 +12675,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -12702,10 +12699,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -12726,10 +12723,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -12750,10 +12747,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -12774,10 +12771,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -12798,10 +12795,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -12822,10 +12819,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -12846,10 +12843,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -12870,10 +12867,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88">
         <v>15</v>
@@ -12894,10 +12891,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89">
         <v>15</v>
@@ -12918,10 +12915,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90">
         <v>15</v>
@@ -12942,10 +12939,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91">
         <v>15</v>
@@ -12966,10 +12963,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92">
         <v>15</v>
@@ -12990,7 +12987,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -13024,8 +13021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C71E3E8-CEC8-4499-9A2C-2CA3B7013872}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:H93"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13035,25 +13032,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -13061,7 +13058,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -13088,7 +13085,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -13115,7 +13112,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -13142,7 +13139,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -13169,7 +13166,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -13196,7 +13193,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -13223,7 +13220,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -13250,7 +13247,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -13277,7 +13274,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -13304,7 +13301,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -13331,7 +13328,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -13358,7 +13355,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -13385,7 +13382,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -13412,7 +13409,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -13439,7 +13436,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -13466,7 +13463,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -13493,7 +13490,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -13520,7 +13517,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -13547,7 +13544,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -13574,7 +13571,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -13601,7 +13598,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -13628,7 +13625,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -13655,7 +13652,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -13682,7 +13679,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -13709,7 +13706,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -13736,7 +13733,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -13763,7 +13760,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -13790,7 +13787,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -13817,7 +13814,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -13844,7 +13841,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -13871,7 +13868,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -13898,7 +13895,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -13925,7 +13922,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -13952,7 +13949,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -13979,7 +13976,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -14006,7 +14003,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -14033,7 +14030,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -14246,10 +14243,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -14273,7 +14270,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -14300,7 +14297,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -14327,10 +14324,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -14354,10 +14351,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -14381,10 +14378,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -14408,10 +14405,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -14435,10 +14432,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -14462,10 +14459,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -14489,10 +14486,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -14516,7 +14513,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -14543,7 +14540,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -14570,10 +14567,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -14597,10 +14594,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -14624,7 +14621,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -14651,10 +14648,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61">
         <v>20</v>
@@ -14678,10 +14675,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -14705,10 +14702,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -14732,10 +14729,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -14759,7 +14756,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -14786,7 +14783,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -14813,7 +14810,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -14840,7 +14837,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -14867,10 +14864,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69">
         <v>15</v>
@@ -14894,7 +14891,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -14921,7 +14918,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -14948,10 +14945,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72">
         <v>15</v>
@@ -14972,10 +14969,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -14996,10 +14993,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -15020,10 +15017,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -15044,10 +15041,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -15068,10 +15065,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -15092,10 +15089,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -15116,10 +15113,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -15140,10 +15137,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -15164,10 +15161,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -15188,10 +15185,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -15212,10 +15209,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -15236,10 +15233,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -15260,10 +15257,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -15284,10 +15281,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -15308,10 +15305,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -15332,10 +15329,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88">
         <v>15</v>
@@ -15356,10 +15353,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89">
         <v>15</v>
@@ -15380,10 +15377,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90">
         <v>15</v>
@@ -15404,10 +15401,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91">
         <v>15</v>
@@ -15428,10 +15425,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92">
         <v>15</v>
@@ -15452,7 +15449,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -15486,8 +15483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957D712E-ED84-4BA0-A542-F09D64777F3A}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E93"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15497,25 +15494,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -15523,7 +15520,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -15549,7 +15546,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -15575,7 +15572,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -15601,7 +15598,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -15627,7 +15624,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -15653,7 +15650,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -15679,7 +15676,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -15705,7 +15702,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -15731,7 +15728,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -15757,7 +15754,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -15783,7 +15780,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -15809,7 +15806,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -15835,7 +15832,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -15861,7 +15858,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -15887,7 +15884,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -15913,7 +15910,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -15939,7 +15936,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -15965,7 +15962,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -15991,7 +15988,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -16017,7 +16014,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -16043,7 +16040,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -16069,7 +16066,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -16095,7 +16092,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -16121,7 +16118,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -16147,7 +16144,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -16173,7 +16170,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -16199,7 +16196,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -16225,7 +16222,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -16251,7 +16248,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -16277,7 +16274,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -16303,7 +16300,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -16329,7 +16326,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -16355,7 +16352,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -16381,7 +16378,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -16407,7 +16404,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -16433,7 +16430,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -16459,7 +16456,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -16664,10 +16661,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -16690,7 +16687,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -16716,7 +16713,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -16742,10 +16739,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -16768,10 +16765,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -16794,10 +16791,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -16820,10 +16817,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -16846,10 +16843,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -16872,10 +16869,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -16898,10 +16895,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -16924,7 +16921,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -16950,7 +16947,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -16976,10 +16973,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -17002,10 +16999,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -17028,7 +17025,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -17054,10 +17051,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61">
         <v>20</v>
@@ -17080,10 +17077,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -17106,10 +17103,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -17132,10 +17129,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -17158,7 +17155,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -17184,7 +17181,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -17210,7 +17207,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -17236,7 +17233,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -17262,10 +17259,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69">
         <v>15</v>
@@ -17288,7 +17285,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -17314,7 +17311,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -17340,10 +17337,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72">
         <v>15</v>
@@ -17363,10 +17360,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -17386,10 +17383,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -17409,10 +17406,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -17432,10 +17429,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -17455,10 +17452,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -17478,10 +17475,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -17501,10 +17498,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -17524,10 +17521,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -17547,10 +17544,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -17570,10 +17567,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -17593,10 +17590,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -17616,10 +17613,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -17639,10 +17636,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -17662,10 +17659,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -17685,10 +17682,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -17708,10 +17705,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88">
         <v>15</v>
@@ -17731,10 +17728,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89">
         <v>15</v>
@@ -17754,10 +17751,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90">
         <v>15</v>
@@ -17777,10 +17774,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91">
         <v>15</v>
@@ -17800,10 +17797,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92">
         <v>15</v>
@@ -17823,7 +17820,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -17856,8 +17853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B1F0B4-2EC2-4EA6-A345-C75BF794FC84}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17867,25 +17864,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -19034,7 +19031,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -19060,7 +19057,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -19086,7 +19083,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -19112,7 +19109,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -19138,7 +19135,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -19164,7 +19161,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -19190,7 +19187,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -19216,7 +19213,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -19242,7 +19239,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -19268,7 +19265,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -19294,7 +19291,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -19320,7 +19317,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -19346,7 +19343,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
@@ -19372,7 +19369,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -19398,7 +19395,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -19424,7 +19421,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -19450,7 +19447,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -19476,7 +19473,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -19502,7 +19499,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
@@ -19528,7 +19525,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -19554,7 +19551,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -19580,7 +19577,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -19606,7 +19603,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -19632,7 +19629,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -19658,7 +19655,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -19684,7 +19681,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -19710,10 +19707,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
         <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>73</v>
       </c>
       <c r="C72">
         <v>15</v>
@@ -19733,10 +19730,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73">
         <v>12</v>
@@ -19756,10 +19753,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74">
         <v>12</v>
@@ -19779,10 +19776,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75">
         <v>12</v>
@@ -19802,10 +19799,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76">
         <v>12</v>
@@ -19825,10 +19822,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77">
         <v>12</v>
@@ -19848,10 +19845,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78">
         <v>12</v>
@@ -19871,10 +19868,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79">
         <v>12</v>
@@ -19894,10 +19891,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C80">
         <v>12</v>
@@ -19917,10 +19914,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -19940,10 +19937,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C82">
         <v>12</v>
@@ -19963,10 +19960,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C83">
         <v>12</v>
@@ -19986,10 +19983,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84">
         <v>12</v>
@@ -20009,10 +20006,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C85">
         <v>12</v>
@@ -20032,10 +20029,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86">
         <v>12</v>
@@ -20055,10 +20052,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87">
         <v>12</v>
@@ -20078,7 +20075,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
@@ -20101,7 +20098,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
@@ -20124,7 +20121,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -20147,7 +20144,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
@@ -20170,7 +20167,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
@@ -20193,7 +20190,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>

--- a/CCR_rules.xlsx
+++ b/CCR_rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cody_\Documents\GitHub\coc-fl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09E35AA-00C2-41E4-A443-502E800507AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF99317C-3CF8-4AD2-9AA7-7B5EA471F7FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{662EDD7E-32B7-4E5C-A0B4-0E6BC21C04FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{662EDD7E-32B7-4E5C-A0B4-0E6BC21C04FB}"/>
   </bookViews>
   <sheets>
     <sheet name="tcjaA" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="tcja26" sheetId="6" r:id="rId6"/>
     <sheet name="tcjaZ" sheetId="7" r:id="rId7"/>
     <sheet name="ads" sheetId="3" r:id="rId8"/>
+    <sheet name="foreign" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="105">
   <si>
     <t>Asset code</t>
   </si>
@@ -17853,8 +17854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B1F0B4-2EC2-4EA6-A345-C75BF794FC84}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19715,6 +19716,9 @@
       <c r="C72">
         <v>15</v>
       </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
       <c r="E72">
         <v>0</v>
       </c>
@@ -19738,6 +19742,9 @@
       <c r="C73">
         <v>12</v>
       </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
       <c r="E73">
         <v>0</v>
       </c>
@@ -19761,6 +19768,9 @@
       <c r="C74">
         <v>12</v>
       </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
       <c r="E74">
         <v>0</v>
       </c>
@@ -19784,6 +19794,9 @@
       <c r="C75">
         <v>12</v>
       </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
       <c r="E75">
         <v>0</v>
       </c>
@@ -19807,6 +19820,9 @@
       <c r="C76">
         <v>12</v>
       </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
       <c r="E76">
         <v>0</v>
       </c>
@@ -19830,6 +19846,9 @@
       <c r="C77">
         <v>12</v>
       </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
       <c r="E77">
         <v>0</v>
       </c>
@@ -19853,6 +19872,9 @@
       <c r="C78">
         <v>12</v>
       </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
       <c r="E78">
         <v>0</v>
       </c>
@@ -19876,6 +19898,9 @@
       <c r="C79">
         <v>12</v>
       </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
       <c r="E79">
         <v>0</v>
       </c>
@@ -19899,6 +19924,9 @@
       <c r="C80">
         <v>12</v>
       </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
       <c r="E80">
         <v>0</v>
       </c>
@@ -19922,6 +19950,9 @@
       <c r="C81">
         <v>12</v>
       </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
       <c r="E81">
         <v>0</v>
       </c>
@@ -19945,6 +19976,9 @@
       <c r="C82">
         <v>12</v>
       </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
       <c r="E82">
         <v>0</v>
       </c>
@@ -19968,6 +20002,9 @@
       <c r="C83">
         <v>12</v>
       </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
       <c r="E83">
         <v>0</v>
       </c>
@@ -19991,6 +20028,9 @@
       <c r="C84">
         <v>12</v>
       </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
       <c r="E84">
         <v>0</v>
       </c>
@@ -20014,6 +20054,9 @@
       <c r="C85">
         <v>12</v>
       </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
       <c r="E85">
         <v>0</v>
       </c>
@@ -20037,6 +20080,9 @@
       <c r="C86">
         <v>12</v>
       </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
       <c r="E86">
         <v>0</v>
       </c>
@@ -20060,6 +20106,9 @@
       <c r="C87">
         <v>12</v>
       </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
       <c r="E87">
         <v>0</v>
       </c>
@@ -20083,6 +20132,9 @@
       <c r="C88">
         <v>15</v>
       </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
       <c r="E88">
         <v>0</v>
       </c>
@@ -20106,6 +20158,9 @@
       <c r="C89">
         <v>15</v>
       </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
       <c r="E89">
         <v>0</v>
       </c>
@@ -20129,6 +20184,9 @@
       <c r="C90">
         <v>15</v>
       </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
       <c r="E90">
         <v>0</v>
       </c>
@@ -20152,6 +20210,9 @@
       <c r="C91">
         <v>15</v>
       </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
       <c r="E91">
         <v>0</v>
       </c>
@@ -20174,6 +20235,2442 @@
       </c>
       <c r="C92">
         <v>15</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>40</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B54982D-8C70-435C-B570-25689C4109B0}">
+  <dimension ref="A1:H93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>6.5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>22</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>39</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>40</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>22</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>45</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>40</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>40</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>12.5</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>40</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>25</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>50</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>50</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>40</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>15</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
       </c>
       <c r="E92">
         <v>0</v>
